--- a/medicine/Mort/Peine_de_mort_en_Algérie/Peine_de_mort_en_Algérie.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Algérie/Peine_de_mort_en_Algérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Alg%C3%A9rie</t>
+          <t>Peine_de_mort_en_Algérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Algérie, la peine de mort est une sanction légale prévue par le code pénal qui n'est plus appliquée depuis 1993.
 Les tribunaux continuent à prononcer des condamnations à mort, notamment dans les cas de terrorisme, mais les peines ne sont pas exécutées ; l'Algérie pratiquant de fait un moratoire.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Alg%C3%A9rie</t>
+          <t>Peine_de_mort_en_Algérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Crimes punis de la peine de mort</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les crimes passibles de la peine de mort sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les crimes passibles de la peine de mort sont :
 La trahison ;
 L'espionnage ;
 Le meurtre aggravé[code 1],[code 2] ;
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Alg%C3%A9rie</t>
+          <t>Peine_de_mort_en_Algérie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Procédure/application selon les infractions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le condamné, s'il est reconnu coupable de crimes militaires est fusillé par un peloton d'exécution. Le condamné à mort de droit commun est exécuté par pendaison, mais la peine n'est plus exécutée depuis 1993 à la suite du moratoire.
 </t>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Alg%C3%A9rie</t>
+          <t>Peine_de_mort_en_Algérie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'époque de la colonisation française, la peine de mort s'appliquait par voie de guillotine, mais lors de la guerre d'Algérie et de son indépendance, l'Algérie a préféré changer de moyen de mise à mort en optant pour la pendaison[réf. nécessaire].
 </t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Alg%C3%A9rie</t>
+          <t>Peine_de_mort_en_Algérie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,18 +638,55 @@
           <t>Ces dernières années</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L’Algérie n’a procédé à aucune exécution depuis 1993. Elle a également parrainé et voté en faveur de la résolution appelant à un moratoire en vue d’abolir définitivement la peine de mort, adoptée par l’Assemblée générale des Nations unies le 16 décembre 2020. Toutefois, la loi algérienne prévoit toujours la peine de mort. 
-Statistiques
-Le nombre de condamnation à mort a fortement diminué au cours des dernières années[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Algérie n’a procédé à aucune exécution depuis 1993. Elle a également parrainé et voté en faveur de la résolution appelant à un moratoire en vue d’abolir définitivement la peine de mort, adoptée par l’Assemblée générale des Nations unies le 16 décembre 2020. Toutefois, la loi algérienne prévoit toujours la peine de mort. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Peine_de_mort_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peine_de_mort_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ces dernières années</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nombre de condamnation à mort a fortement diminué au cours des dernières années :
 62 condamnations en 2015 ;
 50 condamnations en 2016 ;
 27 condamnations en 2017 ;
 1 condamnation en 2018 ;
 4 condamnations en 2019 ;
 1 condamnation en 2020 ;
-50 (initialement) en 2022, ramenées à 39 condamnations (dont 49 initialement pour le lynchage d'une personne accusée à tort de pyromanie)[3],[4]. En appel, le nombre de condamnations à mort passe de 49 à 38[5].</t>
+50 (initialement) en 2022, ramenées à 39 condamnations (dont 49 initialement pour le lynchage d'une personne accusée à tort de pyromanie),. En appel, le nombre de condamnations à mort passe de 49 à 38.</t>
         </is>
       </c>
     </row>
